--- a/Documents/aiccra_tables_revised_annotated.xlsx
+++ b/Documents/aiccra_tables_revised_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/p_steward_cgiar_org/Documents/Projects/AICCRA/Background/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/p_steward_cgiar_org/Documents/Projects/AICCRA/AICCRA_EFA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{F5B61445-EFD5-4C4C-ABA2-C545C7FCEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84557DF-3B45-4F90-94AC-733C837BF134}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{F5B61445-EFD5-4C4C-ABA2-C545C7FCEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59E00960-D46B-4577-8346-14D3961F4C94}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systems" sheetId="1" r:id="rId1"/>
@@ -575,14 +575,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1159,7 +1159,7 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1204,12 +1204,12 @@
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -1230,9 +1230,9 @@
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,8 +1245,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1264,12 +1264,12 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1277,22 +1277,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1301,18 +1301,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1325,12 +1325,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,9 +1354,6 @@
     </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1758,27 +1758,27 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="35.88671875" style="50" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" style="50" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D1" s="7" t="s">
         <v>35</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>74.82233502538071</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>36.568986568986567</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>37</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>34.249628528974739</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>38</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>60</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>35.413957520589513</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>67</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>17.367168913560665</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>69</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>71</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>96</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>9.6060442525634109</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>121</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>50.426026336173507</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>126</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>127</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>131</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>134</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>135</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>156</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>159</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>34.182590233545646</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>178</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>179</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>188</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>189</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>203</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>30.86283185840708</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>204</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>64200355</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>0</v>
       </c>
@@ -2644,12 +2644,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>115926.9</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>276749.00000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>581117.69999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>320932.89999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>464392.9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>1131355.3000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>67</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>233409.09999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>69</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>245382.30000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>71</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>10294.4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>72</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>32403.699999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>96</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>572088.19999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>121</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1247942.4000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>126</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>772201.8</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>127</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>1043615.5000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>131</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>97370.2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>134</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1188851.6000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>135</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>903437.70000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>156</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>23650.300000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>159</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>195130.59999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>178</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>1273582.0999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>179</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>57854.899999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>188</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>883297</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>189</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>204686.1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>203</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>742165.2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>204</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>387864.49999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D59" s="4">
         <f>SUM(D33:D58)</f>
         <v>6808304.5999999987</v>
@@ -3950,7 +3950,7 @@
         <v>13030615.299999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3973,7 +3973,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>12365991.200000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>11922072</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>16</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>20918273.200000003</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>30</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>2430296.9999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>37</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>23083360.199999999</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>38</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>25891047</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>60</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>111714254.59999999</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>29927567.900000002</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>13843201.799999999</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>71</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>2141935.5999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>72</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>1838551.2</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>96</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>50964225.5</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>121</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>18609834.699999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>126</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>30749550.699999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>127</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>4148214.8999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>131</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>19599278</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>134</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>24003197.700000003</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>135</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>203691920.90000001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>156</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>12906841.100000001</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>159</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>16138675.6</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>178</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>16183149.1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>179</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>8069337.1999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>188</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>57687512.499999993</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>189</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>43994064.299999997</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>203</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>18811956.399999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>204</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>17307594.399999999</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D87" s="4">
         <f t="shared" ref="D87:N87" si="3">SUM(D61:D86)</f>
         <v>71508378.5</v>
@@ -5271,7 +5271,7 @@
         <v>798941904.70000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>869415806</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>15</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>1365805909</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>971010914.39999998</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>30</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>37979220.199999996</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>37</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2722656369.1999998</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>38</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>2375246479</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>60</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>4013097299</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>67</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>3906213724</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>1419021899.8</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>71</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>100137851.40000001</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>72</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>98020399.599999994</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>2563450000</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>121</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1105585411</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>126</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1296181487</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>127</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>63180536.899999999</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>131</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1448429024.1999998</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>134</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1214042591.5999999</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>135</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>28707376511.799999</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>156</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1240939479</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>159</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>693788904</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>178</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>773284361.70000005</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>179</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>471683644.80000001</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>188</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>3934313582.6999998</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>189</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>3935508584.5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>203</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>484057628.30000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>204</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>465046551</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D115" s="4">
         <f t="shared" ref="D115:N115" si="5">SUM(D89:D114)</f>
         <v>2482450312.4000001</v>
@@ -6586,7 +6586,7 @@
         <v>66275474170.099998</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="4"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1104775.4000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>15</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>1736666</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>16</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>4419977.2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>30</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>145623.1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>37</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>2548519.6000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>38</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>3076587.5</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>60</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>11142963.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>67</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>4154340.6999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>69</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>2448596.6999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>71</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>327763.09999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>72</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>189920.7</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>96</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>4017100</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>121</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>3859711.4000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>126</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>4642718.9000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>127</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>314607.7</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>3151524.9999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>134</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>12329579.400000002</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>135</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>37293766.199999996</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>156</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>1614061.2</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>159</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>2119909.1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>178</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>3080740.3</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>179</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>1224513.3999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>188</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>9496320.4999999981</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>189</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>5951851.1999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>203</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>1186264.3999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>204</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>2539822.1000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D143" s="4">
         <f t="shared" ref="D143:N143" si="7">SUM(D117:D142)</f>
         <v>9443845.1000000015</v>
@@ -7901,7 +7901,7 @@
         <v>124118223.90000002</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>13</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>17123231.300000001</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>15</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>111139048.5</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>16</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>102224928.60000001</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>30</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>1827082.1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>37</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>89019570.400000006</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>38</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>152168972.30000001</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>60</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>510119939.60000002</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>67</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>165196791.19999999</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>69</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>70489618.200000003</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>71</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>4200025.5999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>72</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>5279058.9000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>96</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>410390583.19999999</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>121</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>84128933.200000003</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>126</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>159459394.69999999</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>127</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>1379470.0999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>131</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>254457639.40000001</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>134</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>1128417.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>135</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>869750400.79999995</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>156</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>12710281.9</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>159</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>45148573.799999997</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>178</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>22792408.199999999</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>179</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>75133535.199999988</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>188</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>521511911.5</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>189</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>166665044.30000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>203</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>164587375.79999998</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>204</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>192114618.50000003</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D171" s="4">
         <f t="shared" ref="D171:N171" si="9">SUM(D145:D170)</f>
         <v>272573340.60000002</v>
@@ -9216,7 +9216,7 @@
         <v>4210146855.0999994</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>49</v>
       </c>
@@ -9233,7 +9233,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>13</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>112897.9</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>15</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>680638.9</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>16</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>425214.89999999991</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>30</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>57250.5</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>37</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>280790.40000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>38</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>514061.39999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>60</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>1754189.5</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>67</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>752364.79999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>69</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>322966.89999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>71</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>27622.9</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>72</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>15060.299999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>96</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>1653292.9000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>121</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>389853.89999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>126</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1578462.4999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>127</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>15656.2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>131</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>1592212.7000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>134</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>7759.2</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>135</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>3613392.4000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>156</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>105942.09999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>159</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>137555.19999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>178</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>158565.59999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>179</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>467532.79999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>188</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>2906801.8000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>189</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>769207.4</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>203</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>611657.9</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>204</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>1637959.9000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D199" s="4">
         <f t="shared" ref="D199:N199" si="11">SUM(D173:D198)</f>
         <v>1500812.2000000002</v>
@@ -10531,7 +10531,7 @@
         <v>20588910.900000002</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>50</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="4"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>120870</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>15</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>784446.3</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>16</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>721615.50000000012</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>30</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>12874.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>37</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>628361.19999999995</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>38</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>1073895</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>60</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>3600725.5000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>67</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>1166399.1999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>69</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>497538.9</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>71</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>29642.6</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>72</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>37261.700000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>96</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>2897093.5999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>121</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>593954.50000000012</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>126</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>1124824.3</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>127</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>9743.4000000000015</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>131</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>1796143.0999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>134</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>7952.8</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>135</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>6139555.7999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>156</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>89677.7</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>159</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>318662.3</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>178</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>160944.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>179</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>530280.9</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>188</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>3681717.3</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>189</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>1176479.9000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>203</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>1162005.6999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>204</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>1356481.5999999996</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D227" s="4">
         <f t="shared" ref="D227:N227" si="13">SUM(D201:D226)</f>
         <v>1924060.1000000003</v>
@@ -11846,7 +11846,7 @@
         <v>29719147.800000001</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -11863,7 +11863,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="4"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>5546</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>15</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>7109.9000000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>16</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>7052.8000000000011</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>30</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>37</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>14858.400000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>38</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>16754.300000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>60</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>8455.4000000000015</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>67</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>11684.4</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>69</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>7962.0999999999985</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>71</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>1973.4</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>72</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>12828.400000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>96</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>10693.300000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>121</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>3969.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>126</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>5999.2999999999993</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>127</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>800.80000000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>131</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>5719.9000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>134</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>4227.3</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>135</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>13887.299999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>156</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>159</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>6647.4000000000005</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>178</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>3551.5000000000005</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>179</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>5244.6</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>188</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>10428.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>189</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>5624.2999999999993</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>203</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>11530.9</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>204</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>6582.9</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D255" s="4">
         <f t="shared" ref="D255:N255" si="15">SUM(D229:D254)</f>
         <v>13537.3</v>
@@ -13161,7 +13161,7 @@
         <v>191791.99999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -13178,7 +13178,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="4"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>13</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>12789305.5</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>15</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>32591093.099999998</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>151023254.80000001</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>30</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>16490033.299999999</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>37</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>29894710.099999998</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>38</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>186114179.90000001</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>60</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>1024517016.7</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>67</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>48494025.199999996</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>69</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>111488542.8</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>71</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>7831057.7000000002</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>72</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>8800372.8000000007</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>96</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>318375805.80000001</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>121</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>99854459.200000003</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>126</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>23235468.899999999</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>127</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>20325243.300000001</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>131</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>23675898.700000003</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>134</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>70162313.699999988</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>135</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>522840028.89999998</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>156</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>29597920.699999999</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>159</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>61255094.600000009</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>178</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>161023600.00000003</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>179</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>14702810.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>188</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>244276710.10000002</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>189</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>183807054.80000001</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>203</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>39474213.200000003</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>204</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>116636074.09999999</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D283" s="4">
         <f t="shared" ref="D283:N283" si="17">SUM(D257:D282)</f>
         <v>216543858</v>
@@ -14476,7 +14476,7 @@
         <v>3559276288.4999995</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>45</v>
       </c>
@@ -14493,7 +14493,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="4"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>13</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>10839849.4</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>15</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>15411179.899999999</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>16</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>39992491.599999994</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>30</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>24864541.300000001</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>37</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>21483365.199999999</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>38</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>45649003.299999997</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>60</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>1012607173.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>67</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>21121504.900000002</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>69</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>47316569.799999997</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>71</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>2150434.9</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>72</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>3434760.8</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>96</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>368358413.5</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>121</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>34036312.699999996</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>126</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>16015744</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>127</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>8627168.5999999996</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>131</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>16945023.800000001</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>134</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>30481884.599999998</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>135</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>163780699.20000002</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>156</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>24255072.100000001</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>159</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>17451074.200000003</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>178</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>30193430.899999999</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>179</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>5093184.5000000009</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>188</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>364443454.10000002</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>189</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>170938380.39999998</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>203</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>37521292.200000003</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>204</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>99493844.5</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D311" s="4">
         <f t="shared" ref="D311:N311" si="19">SUM(D285:D310)</f>
         <v>249395871.00000003</v>
@@ -15791,7 +15791,7 @@
         <v>2632505854.1999998</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>46</v>
       </c>
@@ -15808,7 +15808,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="4"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>13</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>6671521.7999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>15</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>17001098.400000002</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>16</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>78780885.699999988</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>30</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>8602007</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>37</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>15594530.699999999</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>38</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>97086217.199999988</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>60</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>534436853.60000002</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>67</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>25296856.099999998</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>69</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>58157868.399999991</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>71</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>4085056.8</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>72</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>4590698.0999999996</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>96</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>166080207.40000001</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>121</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>52088973.200000003</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>126</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>12120747.699999999</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>127</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>10602633.300000001</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>131</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>12350494.699999999</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>134</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>36600148.300000004</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>135</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>272738571.30000001</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>156</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>15439713</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>159</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>31953676.100000001</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>178</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>83997550.100000009</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>179</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>7669696.1000000006</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>188</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>127426529.59999999</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>189</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>95882579.600000009</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>203</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>20591688.900000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>204</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>60843055.899999999</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D339" s="4">
         <f t="shared" ref="D339:N339" si="21">SUM(D313:D338)</f>
         <v>112959705.99999999</v>
@@ -17106,7 +17106,7 @@
         <v>1856689858.9999998</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>47</v>
       </c>
@@ -17123,7 +17123,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="4"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>13</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>35893529.399999999</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>15</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>51030397.300000004</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>16</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>132425774.90000001</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>30</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>82332791.200000003</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>37</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>71137020.100000009</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>38</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>151155573.70000002</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>60</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>3353004148.5999999</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>67</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>69938688.300000012</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>69</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>156677499.60000002</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>71</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>7120644.6000000006</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>72</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>11373385.300000001</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>96</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>1219730035</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>121</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>112703334.2</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>126</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>53032260.100000001</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>127</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>28566788.199999999</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>131</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>56109356.299999997</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>134</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>100933286.99999999</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>135</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>542319697.70000005</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>156</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>80314773.599999994</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>159</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>57785018.199999996</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>178</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>99978123.599999994</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>179</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>16864847.899999999</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>188</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>1206765974.5</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>189</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>566020617.5</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>203</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>124242502.79999998</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>204</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>329449417.10000002</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D367" s="4">
         <f t="shared" ref="D367:N367" si="23">SUM(D341:D366)</f>
         <v>825814179.29999995</v>
@@ -18421,7 +18421,7 @@
         <v>8716905486.7000008</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>59</v>
       </c>
@@ -18437,7 +18437,7 @@
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>13</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>374174.8</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>15</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>1986033.1</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>16</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>8437243.5999999996</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>30</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>2644497.7000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>37</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>1569300.9000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>38</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>3589752.9</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>60</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>50530912.200000003</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>67</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>1376307.4</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>69</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>4865436.6000000006</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>71</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>384565.6</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>72</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>615758.79999999993</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>96</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>17868652.799999997</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>121</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>9013442</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>126</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>1190742.6000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>127</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>1726645.9000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>131</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>874565.9</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>134</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>9746203.5</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>135</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>15780795.5</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>156</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>1316428.4000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>159</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>3282504.9</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>178</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>7296498.1000000006</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>179</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>315226.90000000008</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>188</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>17650087.299999997</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>189</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>11601109.299999999</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>203</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>2887140.0999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>204</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>5017596.2</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D395" s="4">
         <f t="shared" ref="D395:N395" si="25">SUM(D369:D394)</f>
         <v>31881240.5</v>
@@ -19755,42 +19755,42 @@
       <selection pane="bottomRight" activeCell="U128" sqref="U128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
     <col min="14" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="2.88671875" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="14.88671875" customWidth="1"/>
-    <col min="24" max="24" width="3.109375" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="24.6640625" customWidth="1"/>
+    <col min="26" max="26" width="24.7109375" customWidth="1"/>
     <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" customWidth="1"/>
-    <col min="31" max="31" width="14.5546875" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="14.88671875" customWidth="1"/>
-    <col min="34" max="34" width="18.109375" customWidth="1"/>
-    <col min="35" max="35" width="15.6640625" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -19851,12 +19851,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>37</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>38</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>67</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>69</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>71</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>96</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>121</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>126</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>127</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>131</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>134</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>135</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>156</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>159</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>178</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>179</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>188</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>189</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>203</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>204</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>0.51807241962076966</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D29" s="4">
         <f t="shared" ref="D29:I29" si="2">SUM(D3:D28)</f>
         <v>2716007.3000000003</v>
@@ -21038,7 +21038,7 @@
         <v>0.33976653427869985</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -21057,7 +21057,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -21098,7 +21098,7 @@
         <v>0.87542131681284063</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>0.62073948219738984</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>0.74847451557330258</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>0.29044079797654365</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>37</v>
       </c>
@@ -21262,7 +21262,7 @@
         <v>0.68906489186093456</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>38</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>0.42407617969254008</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>60</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>0.81335744149520561</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>67</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>0.57642277707437761</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>69</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>0.49044048465724166</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>71</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>0.73631644200694002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>72</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>0.42079997554596255</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>96</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>0.53480502122022833</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>121</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>0.59361383795633615</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>126</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>0.45344246281946488</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>127</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>0.11340535901358438</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>131</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>0.72410281644048313</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>134</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>0.57817805250172971</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>135</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>0.73322042347139549</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>156</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>0.85820184150248813</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>159</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>0.70036806489870829</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>178</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>0.51139235935235872</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>179</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>0.67669143879623717</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>188</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>0.55909937874336324</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>189</v>
       </c>
@@ -22041,7 +22041,7 @@
         <v>0.7906048839411276</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>203</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>0.23827417546002821</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>204</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>0.49357261919657652</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D57" s="4">
         <f t="shared" ref="D57:I57" si="4">SUM(D31:D56)</f>
         <v>213479328.20000002</v>
@@ -22161,7 +22161,7 @@
         <v>0.65717243908635847</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -22174,7 +22174,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>16</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>37</v>
       </c>
@@ -22527,7 +22527,7 @@
         <v>26572081.415999997</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>38</v>
       </c>
@@ -22592,7 +22592,7 @@
         <v>22230775.066999998</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>60</v>
       </c>
@@ -22657,7 +22657,7 @@
         <v>32549951.310000002</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>67</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>4637645.3130000001</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>69</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>13552088.086999999</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>71</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>959378.25800000015</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>72</v>
       </c>
@@ -22917,7 +22917,7 @@
         <v>927413.40699999989</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>96</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>13438545.35</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>121</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>7989569.6250000009</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>126</v>
       </c>
@@ -23112,7 +23112,7 @@
         <v>11412261.619999999</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>127</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>618010.66799999995</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>131</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>11975879.496999998</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>134</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>12129141.738</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>135</v>
       </c>
@@ -23372,7 +23372,7 @@
         <v>279028586.10100001</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>156</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>23673297.193893939</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>159</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>5473699.9460000005</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>178</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>7504919.5350000001</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>179</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>3979649.8560000001</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>188</v>
       </c>
@@ -23697,7 +23697,7 @@
         <v>54782790.170018479</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>189</v>
       </c>
@@ -23762,7 +23762,7 @@
         <v>72715041.031032756</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>203</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>1091831.0109999999</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>204</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>2729319.3249999993</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D85" s="4">
         <f t="shared" ref="D85:I85" si="11">SUM(D59:D84)</f>
         <v>17332820498</v>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="Y85" s="21"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -23963,7 +23963,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>15</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>16</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>30</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>37</v>
       </c>
@@ -24183,7 +24183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>38</v>
       </c>
@@ -24227,7 +24227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>60</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>10627028.699999999</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>67</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>1024736</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>69</v>
       </c>
@@ -24361,7 +24361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>71</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>72</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>3072279.1000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>121</v>
       </c>
@@ -24539,7 +24539,7 @@
         <v>3232180.3</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>126</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>127</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>131</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>134</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>135</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>156</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>159</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>1959932.2</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>178</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>179</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>188</v>
       </c>
@@ -24980,7 +24980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>189</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>203</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>439573.8</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>204</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D113" s="4">
         <f t="shared" ref="D113:I113" si="14">SUM(D87:D112)</f>
         <v>55914703.500000007</v>
@@ -25155,7 +25155,7 @@
         <v>20355730.100000001</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>13</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15</v>
       </c>
@@ -25307,7 +25307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>30</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>37</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>1078064.7792</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>38</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>1826027.6676000003</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>60</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>67</v>
       </c>
@@ -25687,7 +25687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>69</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>849067.73520000011</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>71</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>50400.307199999988</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>72</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>63348.706800000007</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>96</v>
       </c>
@@ -25931,7 +25931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>121</v>
       </c>
@@ -25992,7 +25992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -26053,7 +26053,7 @@
         <v>1918446.8219999999</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -26114,7 +26114,7 @@
         <v>16553.641199999998</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>131</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>3058932.4356000004</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>134</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>13541.0136</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>135</v>
       </c>
@@ -26297,7 +26297,7 @@
         <v>10459435.6044</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>156</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>294394.15824992792</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>159</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>178</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>273508.89840000001</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>179</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>905190.4319999998</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>188</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>10763804.060610153</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>189</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>3853944.123903166</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>203</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>204</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>2305375.4220000003</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D141" s="4">
         <f t="shared" ref="D141:I141" si="18">SUM(D115:D140)</f>
         <v>1419383079.0999999</v>
@@ -26843,7 +26843,7 @@
         <v>40714243.803521946</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -26856,7 +26856,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>13</v>
       </c>
@@ -26904,7 +26904,7 @@
         <v>219242.12812266656</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>15</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>682268.70000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>16</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>425214.89999999991</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>30</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>57250.5</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>37</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>283476.7</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>38</v>
       </c>
@@ -27144,7 +27144,7 @@
         <v>514061.39999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>60</v>
       </c>
@@ -27192,7 +27192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>67</v>
       </c>
@@ -27240,7 +27240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>69</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>324289.09999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>71</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>27622.9</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>72</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>15060.299999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>96</v>
       </c>
@@ -27432,7 +27432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>121</v>
       </c>
@@ -27480,7 +27480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>126</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>1581089.3999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>127</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>15656.2</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>131</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>1595398.2000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>134</v>
       </c>
@@ -27672,7 +27672,7 @@
         <v>7759.2</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>135</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>3619659.5000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>156</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>204559.22182711121</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>178</v>
       </c>
@@ -27864,7 +27864,7 @@
         <v>158565.59999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>179</v>
       </c>
@@ -27912,7 +27912,7 @@
         <v>470157.39999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>188</v>
       </c>
@@ -27960,7 +27960,7 @@
         <v>5042706.1336752716</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>189</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>1480861.623111374</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>203</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>204</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>1637959.9000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D169" s="4">
         <f t="shared" ref="D169:I169" si="21">SUM(D143:D168)</f>
         <v>8103919.5999999996</v>
@@ -28150,7 +28150,7 @@
         <v>18362859.006736424</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -28163,7 +28163,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="19"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>13</v>
       </c>
@@ -28211,7 +28211,7 @@
         <v>235017.02989161911</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>15</v>
       </c>
@@ -28259,7 +28259,7 @@
         <v>785851.10000000009</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>16</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>721615.50000000012</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>30</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>12874.6</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>37</v>
       </c>
@@ -28403,7 +28403,7 @@
         <v>634143.39999999991</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>38</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>1073895</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>60</v>
       </c>
@@ -28499,7 +28499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>67</v>
       </c>
@@ -28547,7 +28547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>69</v>
       </c>
@@ -28595,7 +28595,7 @@
         <v>499416.60000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>71</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>29642.6</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>72</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>37261.700000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>96</v>
       </c>
@@ -28739,7 +28739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>121</v>
       </c>
@@ -28787,7 +28787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>126</v>
       </c>
@@ -28835,7 +28835,7 @@
         <v>1127724.7</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>127</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>9743.4000000000015</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>131</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>1799343.4999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>134</v>
       </c>
@@ -28979,7 +28979,7 @@
         <v>7952.8</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>135</v>
       </c>
@@ -29027,7 +29027,7 @@
         <v>6152750.7000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>156</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>173092.82082535568</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>159</v>
       </c>
@@ -29123,7 +29123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>178</v>
       </c>
@@ -29171,7 +29171,7 @@
         <v>160944.4</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>179</v>
       </c>
@@ -29219,7 +29219,7 @@
         <v>532391.20000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>188</v>
       </c>
@@ -29267,7 +29267,7 @@
         <v>6332436.4175129393</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>189</v>
       </c>
@@ -29315,7 +29315,7 @@
         <v>2267066.9252638314</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>203</v>
       </c>
@@ -29363,7 +29363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>204</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>1356481.5999999996</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D197" s="4">
         <f t="shared" ref="D197:I197" si="24">SUM(D171:D196)</f>
         <v>10019607.300000001</v>
@@ -29457,7 +29457,7 @@
         <v>23949645.993493743</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>51</v>
       </c>
@@ -29470,7 +29470,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>13</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>0.64138117562206998</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>15</v>
       </c>
@@ -29552,7 +29552,7 @@
         <v>0.40553312986117945</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>16</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>0.54263554900181488</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>30</v>
       </c>
@@ -29634,7 +29634,7 @@
         <v>0.33824561403508774</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>37</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>0.50972513864211477</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>38</v>
       </c>
@@ -29716,7 +29716,7 @@
         <v>0.55591698847460047</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>60</v>
       </c>
@@ -29757,7 +29757,7 @@
         <v>0.69943468079570437</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>67</v>
       </c>
@@ -29798,7 +29798,7 @@
         <v>0.5481582280647701</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>69</v>
       </c>
@@ -29839,7 +29839,7 @@
         <v>0.6642343100438326</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>71</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>0.42718151413803584</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>72</v>
       </c>
@@ -29921,7 +29921,7 @@
         <v>0.54039474915032271</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>96</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>0.78797938896318254</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>121</v>
       </c>
@@ -30003,7 +30003,7 @@
         <v>0.50880463534450182</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>126</v>
       </c>
@@ -30044,7 +30044,7 @@
         <v>0.58653509576117224</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>127</v>
       </c>
@@ -30085,7 +30085,7 @@
         <v>0.917082917082917</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>131</v>
       </c>
@@ -30126,7 +30126,7 @@
         <v>0.7869368345600446</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>134</v>
       </c>
@@ -30167,7 +30167,7 @@
         <v>0.7172899959785205</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>135</v>
       </c>
@@ -30208,7 +30208,7 @@
         <v>0.58009116242898195</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>156</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>0.79233214143822006</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>159</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>0.63808406294190212</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>178</v>
       </c>
@@ -30331,7 +30331,7 @@
         <v>0.60805293537941707</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>179</v>
       </c>
@@ -30372,7 +30372,7 @@
         <v>0.50888532967242484</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>188</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>0.7675098768746883</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>189</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>0.60836015148551836</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>203</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>0.53627210365192668</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>204</v>
       </c>
@@ -30536,7 +30536,7 @@
         <v>0.74277294201643662</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D225" s="4">
         <f t="shared" ref="D225:I225" si="26">SUM(D199:D224)</f>
         <v>23893.399999999998</v>
@@ -30575,7 +30575,7 @@
       </c>
       <c r="Q225" s="4"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>44</v>
       </c>
@@ -30588,7 +30588,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="19"/>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>15</v>
       </c>
@@ -30724,7 +30724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>16</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>30</v>
       </c>
@@ -30860,7 +30860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>37</v>
       </c>
@@ -30921,7 +30921,7 @@
         <v>363654.23039999994</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>38</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>2233370.1587999999</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>60</v>
       </c>
@@ -31043,7 +31043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>67</v>
       </c>
@@ -31104,7 +31104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>69</v>
       </c>
@@ -31165,7 +31165,7 @@
         <v>1339007.3771999998</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>71</v>
       </c>
@@ -31226,7 +31226,7 @@
         <v>93972.6924</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>72</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>105604.4736</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>96</v>
       </c>
@@ -31348,7 +31348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>121</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>126</v>
       </c>
@@ -31470,7 +31470,7 @@
         <v>280141.81319999998</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>127</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>243902.91960000002</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>131</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>284800.2132</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>134</v>
       </c>
@@ -31653,7 +31653,7 @@
         <v>841947.76439999987</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>135</v>
       </c>
@@ -31714,7 +31714,7 @@
         <v>6284612.8295999998</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>156</v>
       </c>
@@ -31775,7 +31775,7 @@
         <v>700531.3207240128</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>159</v>
       </c>
@@ -31836,7 +31836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>178</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>1932283.2000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>179</v>
       </c>
@@ -31958,7 +31958,7 @@
         <v>177050.11919999999</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>188</v>
       </c>
@@ -32019,7 +32019,7 @@
         <v>5042938.4402401103</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>189</v>
       </c>
@@ -32080,7 +32080,7 @@
         <v>4127258.7848472344</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>203</v>
       </c>
@@ -32141,7 +32141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>204</v>
       </c>
@@ -32202,7 +32202,7 @@
         <v>1399632.8891999999</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D253" s="4">
         <f t="shared" ref="D253:I253" si="30">SUM(D227:D252)</f>
         <v>933652797.79999995</v>
@@ -32259,7 +32259,7 @@
         <v>28155702.310816329</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>45</v>
       </c>
@@ -32272,7 +32272,7 @@
       <c r="J254" s="4"/>
       <c r="K254" s="19"/>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>13</v>
       </c>
@@ -32337,7 +32337,7 @@
         <v>9942772.2037416287</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15</v>
       </c>
@@ -32402,7 +32402,7 @@
         <v>4142096.165</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -32467,7 +32467,7 @@
         <v>1574236.929</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>30</v>
       </c>
@@ -32532,7 +32532,7 @@
         <v>15659105.297741627</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>37</v>
       </c>
@@ -32593,7 +32593,7 @@
         <v>259618.66560000001</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>38</v>
       </c>
@@ -32654,7 +32654,7 @@
         <v>547788.03960000002</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>60</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>67</v>
       </c>
@@ -32776,7 +32776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>69</v>
       </c>
@@ -32837,7 +32837,7 @@
         <v>568299.9804</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>71</v>
       </c>
@@ -32898,7 +32898,7 @@
         <v>25805.218799999999</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>72</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>41217.1296</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>96</v>
       </c>
@@ -33020,7 +33020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>121</v>
       </c>
@@ -33081,7 +33081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>126</v>
       </c>
@@ -33142,7 +33142,7 @@
         <v>193012.17600000001</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>127</v>
       </c>
@@ -33203,7 +33203,7 @@
         <v>103526.0232</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>131</v>
       </c>
@@ -33264,7 +33264,7 @@
         <v>203771.5092</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>134</v>
       </c>
@@ -33325,7 +33325,7 @@
         <v>365782.61519999994</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>135</v>
       </c>
@@ -33386,7 +33386,7 @@
         <v>1969354.3848000001</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>156</v>
       </c>
@@ -33447,7 +33447,7 @@
         <v>569267.88292937074</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>159</v>
       </c>
@@ -33508,7 +33508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>178</v>
       </c>
@@ -33569,7 +33569,7 @@
         <v>362321.17080000002</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>179</v>
       </c>
@@ -33630,7 +33630,7 @@
         <v>61346.120400000014</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>188</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>7372350.142626863</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>189</v>
       </c>
@@ -33752,7 +33752,7 @@
         <v>3737451.8930585231</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>203</v>
       </c>
@@ -33813,7 +33813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>204</v>
       </c>
@@ -33874,7 +33874,7 @@
         <v>1193926.1340000001</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D281" s="4">
         <f t="shared" ref="D281:I281" si="35">SUM(D255:D280)</f>
         <v>530228498.70000005</v>
@@ -33931,7 +33931,7 @@
         <v>18790926.357289955</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>46</v>
       </c>
@@ -33944,7 +33944,7 @@
       <c r="J282" s="4"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>13</v>
       </c>
@@ -33992,7 +33992,7 @@
         <v>13131863.050414478</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>15</v>
       </c>
@@ -34040,7 +34040,7 @@
         <v>17073050.500000004</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>16</v>
       </c>
@@ -34088,7 +34088,7 @@
         <v>78780885.699999988</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>30</v>
       </c>
@@ -34136,7 +34136,7 @@
         <v>8602007</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>37</v>
       </c>
@@ -34184,7 +34184,7 @@
         <v>15808306.899999999</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>38</v>
       </c>
@@ -34232,7 +34232,7 @@
         <v>97086217.199999988</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>60</v>
       </c>
@@ -34280,7 +34280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>67</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>69</v>
       </c>
@@ -34376,7 +34376,7 @@
         <v>58207636.399999991</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>71</v>
       </c>
@@ -34424,7 +34424,7 @@
         <v>4085056.8</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>72</v>
       </c>
@@ -34472,7 +34472,7 @@
         <v>4590698.0999999996</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>96</v>
       </c>
@@ -34520,7 +34520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>121</v>
       </c>
@@ -34568,7 +34568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>126</v>
       </c>
@@ -34616,7 +34616,7 @@
         <v>12177963.199999999</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>127</v>
       </c>
@@ -34664,7 +34664,7 @@
         <v>10602633.300000001</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>131</v>
       </c>
@@ -34712,7 +34712,7 @@
         <v>12380464.699999999</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>134</v>
       </c>
@@ -34760,7 +34760,7 @@
         <v>36600148.300000004</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>135</v>
       </c>
@@ -34808,7 +34808,7 @@
         <v>273196425.69999999</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>156</v>
       </c>
@@ -34856,7 +34856,7 @@
         <v>30452597.460334431</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>159</v>
       </c>
@@ -34904,7 +34904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>178</v>
       </c>
@@ -34952,7 +34952,7 @@
         <v>83997550.100000009</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>179</v>
       </c>
@@ -35000,7 +35000,7 @@
         <v>7696491.1000000006</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>188</v>
       </c>
@@ -35048,7 +35048,7 @@
         <v>219220041.6200093</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>189</v>
       </c>
@@ -35096,7 +35096,7 @@
         <v>179414677.77060285</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>203</v>
       </c>
@@ -35144,7 +35144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>204</v>
       </c>
@@ -35192,7 +35192,7 @@
         <v>60843055.899999999</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D309" s="4">
         <f t="shared" ref="D309:I309" si="37">SUM(D283:D308)</f>
         <v>487038557.60000002</v>
@@ -35238,7 +35238,7 @@
         <v>1223947770.8013613</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>47</v>
       </c>
@@ -35251,7 +35251,7 @@
       <c r="J310" s="4"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>13</v>
       </c>
@@ -35299,7 +35299,7 @@
         <v>69607238.922933087</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>15</v>
       </c>
@@ -35347,7 +35347,7 @@
         <v>51199269.300000004</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>16</v>
       </c>
@@ -35395,7 +35395,7 @@
         <v>132425774.90000001</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>30</v>
       </c>
@@ -35443,7 +35443,7 @@
         <v>82332791.200000003</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>37</v>
       </c>
@@ -35491,7 +35491,7 @@
         <v>71638754.000000015</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>38</v>
       </c>
@@ -35539,7 +35539,7 @@
         <v>151155573.70000002</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>60</v>
       </c>
@@ -35587,7 +35587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>67</v>
       </c>
@@ -35635,7 +35635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>69</v>
       </c>
@@ -35683,7 +35683,7 @@
         <v>156815784.00000003</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>71</v>
       </c>
@@ -35731,7 +35731,7 @@
         <v>7120644.6000000006</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>72</v>
       </c>
@@ -35779,7 +35779,7 @@
         <v>11373385.300000001</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>96</v>
       </c>
@@ -35827,7 +35827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>121</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>126</v>
       </c>
@@ -35923,7 +35923,7 @@
         <v>53259425.5</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>127</v>
       </c>
@@ -35971,7 +35971,7 @@
         <v>28566788.199999999</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>131</v>
       </c>
@@ -36019,7 +36019,7 @@
         <v>56228347.5</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>134</v>
       </c>
@@ -36067,7 +36067,7 @@
         <v>100933286.99999999</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>135</v>
       </c>
@@ -36115,7 +36115,7 @@
         <v>543419585.80000007</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>156</v>
       </c>
@@ -36163,7 +36163,7 @@
         <v>157082677.5441142</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>159</v>
       </c>
@@ -36211,7 +36211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>178</v>
       </c>
@@ -36259,7 +36259,7 @@
         <v>99978123.599999994</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>179</v>
       </c>
@@ -36307,7 +36307,7 @@
         <v>16927735.799999997</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>188</v>
       </c>
@@ -36355,7 +36355,7 @@
         <v>2034311818.3855717</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>189</v>
       </c>
@@ -36403,7 +36403,7 @@
         <v>1031304705.0215435</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>203</v>
       </c>
@@ -36451,7 +36451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>204</v>
       </c>
@@ -36499,7 +36499,7 @@
         <v>329449417.10000002</v>
       </c>
     </row>
-    <row r="337" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D337" s="4">
         <f t="shared" ref="D337:I337" si="40">SUM(D311:D336)</f>
         <v>1755722976</v>
@@ -36545,7 +36545,7 @@
         <v>5185131127.3741627</v>
       </c>
     </row>
-    <row r="338" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>59</v>
       </c>
@@ -36557,7 +36557,7 @@
       <c r="I338" s="2"/>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>13</v>
       </c>
@@ -36605,16 +36605,16 @@
         <v>743917.65898414317</v>
       </c>
       <c r="AB339" s="29"/>
-      <c r="AC339" s="74" t="s">
+      <c r="AC339" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AD339" s="75"/>
-      <c r="AE339" s="75"/>
-      <c r="AF339" s="75"/>
-      <c r="AG339" s="75"/>
-      <c r="AH339" s="76"/>
-    </row>
-    <row r="340" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD339" s="76"/>
+      <c r="AE339" s="76"/>
+      <c r="AF339" s="76"/>
+      <c r="AG339" s="76"/>
+      <c r="AH339" s="77"/>
+    </row>
+    <row r="340" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>15</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:35" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:35" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>16</v>
       </c>
@@ -36748,7 +36748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="342" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>30</v>
       </c>
@@ -36795,25 +36795,25 @@
         <f>(H342+K342)</f>
         <v>2644497.7000000002</v>
       </c>
-      <c r="AB342" s="77" t="s">
+      <c r="AB342" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="AC342" s="79">
+      <c r="AC342" s="80">
         <v>4834329</v>
       </c>
-      <c r="AD342" s="79">
+      <c r="AD342" s="80">
         <v>197901</v>
       </c>
-      <c r="AE342" s="79">
+      <c r="AE342" s="80">
         <v>3520593</v>
       </c>
-      <c r="AF342" s="79">
+      <c r="AF342" s="80">
         <v>757781</v>
       </c>
-      <c r="AG342" s="79">
+      <c r="AG342" s="80">
         <v>404216</v>
       </c>
-      <c r="AH342" s="79">
+      <c r="AH342" s="80">
         <v>690546</v>
       </c>
       <c r="AI342" s="5">
@@ -36821,7 +36821,7 @@
         <v>10405366</v>
       </c>
     </row>
-    <row r="343" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>37</v>
       </c>
@@ -36868,15 +36868,15 @@
         <f>(H343+K343)</f>
         <v>1577048.8</v>
       </c>
-      <c r="AB343" s="78"/>
-      <c r="AC343" s="80"/>
-      <c r="AD343" s="80"/>
-      <c r="AE343" s="80"/>
-      <c r="AF343" s="80"/>
-      <c r="AG343" s="80"/>
-      <c r="AH343" s="80"/>
-    </row>
-    <row r="344" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AB343" s="79"/>
+      <c r="AC343" s="81"/>
+      <c r="AD343" s="81"/>
+      <c r="AE343" s="81"/>
+      <c r="AF343" s="81"/>
+      <c r="AG343" s="81"/>
+      <c r="AH343" s="81"/>
+    </row>
+    <row r="344" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>38</v>
       </c>
@@ -36923,25 +36923,25 @@
         <f>(H344+K344)</f>
         <v>3589752.9</v>
       </c>
-      <c r="AB344" s="77" t="s">
+      <c r="AB344" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="AC344" s="79">
+      <c r="AC344" s="80">
         <v>32549951</v>
       </c>
-      <c r="AD344" s="79">
+      <c r="AD344" s="80">
         <v>4637645</v>
       </c>
-      <c r="AE344" s="79">
+      <c r="AE344" s="80">
         <v>13438545</v>
       </c>
-      <c r="AF344" s="79">
+      <c r="AF344" s="80">
         <v>7989570</v>
       </c>
-      <c r="AG344" s="79">
+      <c r="AG344" s="80">
         <v>5473700</v>
       </c>
-      <c r="AH344" s="79">
+      <c r="AH344" s="80">
         <v>1091831</v>
       </c>
       <c r="AI344" s="5">
@@ -36949,7 +36949,7 @@
         <v>65181242</v>
       </c>
     </row>
-    <row r="345" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>60</v>
       </c>
@@ -36996,15 +36996,15 @@
       <c r="U345" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB345" s="78"/>
-      <c r="AC345" s="80"/>
-      <c r="AD345" s="80"/>
-      <c r="AE345" s="80"/>
-      <c r="AF345" s="80"/>
-      <c r="AG345" s="80"/>
-      <c r="AH345" s="80"/>
-    </row>
-    <row r="346" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AB345" s="79"/>
+      <c r="AC345" s="81"/>
+      <c r="AD345" s="81"/>
+      <c r="AE345" s="81"/>
+      <c r="AF345" s="81"/>
+      <c r="AG345" s="81"/>
+      <c r="AH345" s="81"/>
+    </row>
+    <row r="346" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>67</v>
       </c>
@@ -37051,25 +37051,25 @@
       <c r="U346" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB346" s="77" t="s">
+      <c r="AB346" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="AC346" s="79">
+      <c r="AC346" s="80">
         <v>9593557</v>
       </c>
-      <c r="AD346" s="79">
+      <c r="AD346" s="80">
         <v>118731</v>
       </c>
-      <c r="AE346" s="79">
+      <c r="AE346" s="80">
         <v>2199991</v>
       </c>
-      <c r="AF346" s="79">
+      <c r="AF346" s="80">
         <v>792392</v>
       </c>
-      <c r="AG346" s="79">
+      <c r="AG346" s="80">
         <v>545728</v>
       </c>
-      <c r="AH346" s="79">
+      <c r="AH346" s="80">
         <v>43968</v>
       </c>
       <c r="AI346" s="5">
@@ -37077,7 +37077,7 @@
         <v>13294367</v>
       </c>
     </row>
-    <row r="347" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>69</v>
       </c>
@@ -37124,15 +37124,15 @@
         <f>(H347+K347)</f>
         <v>4870431.4000000004</v>
       </c>
-      <c r="AB347" s="78"/>
-      <c r="AC347" s="80"/>
-      <c r="AD347" s="80"/>
-      <c r="AE347" s="80"/>
-      <c r="AF347" s="80"/>
-      <c r="AG347" s="80"/>
-      <c r="AH347" s="80"/>
-    </row>
-    <row r="348" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AB347" s="79"/>
+      <c r="AC347" s="81"/>
+      <c r="AD347" s="81"/>
+      <c r="AE347" s="81"/>
+      <c r="AF347" s="81"/>
+      <c r="AG347" s="81"/>
+      <c r="AH347" s="81"/>
+    </row>
+    <row r="348" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>71</v>
       </c>
@@ -37179,25 +37179,25 @@
         <f>(H348+K348)</f>
         <v>384565.6</v>
       </c>
-      <c r="AB348" s="77" t="s">
+      <c r="AB348" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="AC348" s="79">
+      <c r="AC348" s="80">
         <v>8834923</v>
       </c>
-      <c r="AD348" s="79">
+      <c r="AD348" s="80">
         <v>32056</v>
       </c>
-      <c r="AE348" s="79">
+      <c r="AE348" s="80">
         <v>2116609</v>
       </c>
-      <c r="AF348" s="79">
+      <c r="AF348" s="80">
         <v>194450</v>
       </c>
-      <c r="AG348" s="79">
+      <c r="AG348" s="80">
         <v>133758</v>
       </c>
-      <c r="AH348" s="79">
+      <c r="AH348" s="80">
         <v>65096</v>
       </c>
       <c r="AI348" s="5">
@@ -37205,7 +37205,7 @@
         <v>11376892</v>
       </c>
     </row>
-    <row r="349" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>72</v>
       </c>
@@ -37252,15 +37252,15 @@
         <f>(H349+K349)</f>
         <v>615758.79999999993</v>
       </c>
-      <c r="AB349" s="78"/>
-      <c r="AC349" s="80"/>
-      <c r="AD349" s="80"/>
-      <c r="AE349" s="80"/>
-      <c r="AF349" s="80"/>
-      <c r="AG349" s="80"/>
-      <c r="AH349" s="80"/>
-    </row>
-    <row r="350" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB349" s="79"/>
+      <c r="AC349" s="81"/>
+      <c r="AD349" s="81"/>
+      <c r="AE349" s="81"/>
+      <c r="AF349" s="81"/>
+      <c r="AG349" s="81"/>
+      <c r="AH349" s="81"/>
+    </row>
+    <row r="350" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>96</v>
       </c>
@@ -37339,7 +37339,7 @@
         <v>100257867</v>
       </c>
     </row>
-    <row r="351" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>121</v>
       </c>
@@ -37387,7 +37387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>126</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>1193128.8</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>127</v>
       </c>
@@ -37483,7 +37483,7 @@
         <v>1726645.9000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>131</v>
       </c>
@@ -37531,7 +37531,7 @@
         <v>874569.6</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>134</v>
       </c>
@@ -37579,7 +37579,7 @@
         <v>9746203.5</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>135</v>
       </c>
@@ -37627,7 +37627,7 @@
         <v>15784415.1</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>156</v>
       </c>
@@ -37675,7 +37675,7 @@
         <v>2372628.2978749927</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>159</v>
       </c>
@@ -37723,7 +37723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>178</v>
       </c>
@@ -37771,7 +37771,7 @@
         <v>7296498.1000000006</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>179</v>
       </c>
@@ -37819,7 +37819,7 @@
         <v>315709.60000000009</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>188</v>
       </c>
@@ -37867,7 +37867,7 @@
         <v>28621267.021026567</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>189</v>
       </c>
@@ -37915,7 +37915,7 @@
         <v>20689590.98282361</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>203</v>
       </c>
@@ -37963,7 +37963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>204</v>
       </c>
@@ -38011,7 +38011,7 @@
         <v>5017596.2</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D365" s="4">
         <f t="shared" ref="D365:I365" si="43">SUM(D339:D364)</f>
         <v>60129403.399999999</v>
@@ -38057,7 +38057,7 @@
         <v>118490552.36070932</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S367" s="26">
         <f>S85+S141+S253+S281</f>
         <v>132795882.26880002</v>
@@ -38112,37 +38112,37 @@
   <dimension ref="A3:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="38" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="44" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="38" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="50" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>92</v>
       </c>
@@ -38211,7 +38211,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -38227,7 +38227,7 @@
       </c>
       <c r="V4" s="53"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>2020</v>
       </c>
@@ -38282,7 +38282,7 @@
         <v>-60000000</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>2021</v>
       </c>
@@ -38347,7 +38347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>2022</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>22527377.438080136</v>
       </c>
       <c r="P7" s="20">
-        <f t="shared" ref="P6:P20" si="5">(K7+N7)</f>
+        <f t="shared" ref="P7:P20" si="5">(K7+N7)</f>
         <v>3426069739.1177297</v>
       </c>
       <c r="Q7" t="s">
@@ -38418,7 +38418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>2023</v>
       </c>
@@ -38446,7 +38446,7 @@
         <v>1.6955170096399557</v>
       </c>
       <c r="M8" s="33">
-        <f t="shared" ref="M7:M20" si="9">J7*($B$4/100)+M7</f>
+        <f t="shared" ref="M8:M20" si="9">J7*($B$4/100)+M7</f>
         <v>1132150.7329161228</v>
       </c>
       <c r="N8" s="33">
@@ -38483,7 +38483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>2024</v>
       </c>
@@ -38548,7 +38548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>2025</v>
       </c>
@@ -38613,7 +38613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>2026</v>
       </c>
@@ -38678,7 +38678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>2027</v>
       </c>
@@ -38743,7 +38743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>2028</v>
       </c>
@@ -38808,7 +38808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>2029</v>
       </c>
@@ -38873,7 +38873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>2030</v>
       </c>
@@ -38938,7 +38938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>2031</v>
       </c>
@@ -38988,7 +38988,7 @@
       <c r="T16" s="21"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>2032</v>
       </c>
@@ -39037,7 +39037,7 @@
       </c>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>2033</v>
       </c>
@@ -39086,7 +39086,7 @@
       </c>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>2034</v>
       </c>
@@ -39135,7 +39135,7 @@
       </c>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>2035</v>
       </c>
@@ -39184,7 +39184,7 @@
       </c>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K21" s="20">
         <f>SUM(K6:K15)</f>
         <v>29615430623.013103</v>
@@ -39199,7 +39199,7 @@
         <v>35222468266.911499</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
         <v>105</v>
       </c>
@@ -39208,17 +39208,17 @@
         <v>1.0381369754591279</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N24" t="s">
         <v>104</v>
       </c>
-      <c r="P24" s="81">
+      <c r="P24" s="74">
         <f>P21-(H5*10)</f>
         <v>1293931763.9765511</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T26" s="52" t="s">
         <v>115</v>
       </c>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="W26" s="58"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -39265,7 +39265,7 @@
       </c>
       <c r="W27" s="58"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2030</v>
       </c>
@@ -39307,11 +39307,11 @@
       </c>
       <c r="W28" s="60"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T29" s="57"/>
       <c r="U29" s="57"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N30" t="s">
         <v>105</v>
       </c>
@@ -39322,7 +39322,7 @@
       <c r="T30" s="57"/>
       <c r="U30" s="57"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>104</v>
       </c>
@@ -39331,21 +39331,21 @@
         <v>350057382.91602755</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P33" s="20">
         <f>H5*(1-(((1+B4/100)^10)-1))+H5*(1+C4/100)*(((1+B4/100)^10)-1)-H5</f>
         <v>350057382.91602755</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P34" s="20"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>122</v>
       </c>
@@ -39359,7 +39359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>96</v>
       </c>
@@ -39373,7 +39373,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>369</v>
       </c>
@@ -39387,7 +39387,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>253</v>
       </c>
@@ -39413,28 +39413,28 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
-    <col min="15" max="15" width="27.109375" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>76</v>
       </c>
@@ -39472,7 +39472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39520,7 +39520,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -39568,7 +39568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39616,7 +39616,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -39664,7 +39664,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -39708,7 +39708,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -39756,7 +39756,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -39800,7 +39800,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -39844,7 +39844,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -39888,7 +39888,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -39932,7 +39932,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I12">
         <v>0.99</v>
       </c>
@@ -39960,7 +39960,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -39984,7 +39984,7 @@
         <v>-0.60431354542597548</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -39997,7 +39997,7 @@
         <v>560.71606005178774</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O15" t="s">
         <v>111</v>
       </c>
@@ -40006,7 +40006,7 @@
         <v>-12.224559264720519</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -40019,7 +40019,7 @@
         <v>21.036055526234769</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>92</v>
       </c>
@@ -40063,7 +40063,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>3</v>
       </c>
@@ -40071,7 +40071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>2020</v>
       </c>
@@ -40107,7 +40107,7 @@
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>2021</v>
       </c>
@@ -40155,7 +40155,7 @@
         <v>65881.8796043396</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>2022</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>4761637.0125384331</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>2023</v>
       </c>
@@ -40251,7 +40251,7 @@
         <v>9316519.4914848804</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>2024</v>
       </c>
@@ -40299,7 +40299,7 @@
         <v>13734755.496062994</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>2025</v>
       </c>
@@ -40347,7 +40347,7 @@
         <v>18020444.420503378</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>2026</v>
       </c>
@@ -40395,7 +40395,7 @@
         <v>22177562.677210808</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>2027</v>
       </c>
@@ -40443,7 +40443,7 @@
         <v>26209967.386216879</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>2028</v>
       </c>
@@ -40491,7 +40491,7 @@
         <v>30121399.953953028</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>2029</v>
       </c>
@@ -40539,7 +40539,7 @@
         <v>33915489.544656754</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>2030</v>
       </c>
@@ -40587,7 +40587,7 @@
         <v>37595756.447639704</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K32" s="20">
         <f>SUM(K22:K31)</f>
         <v>13699911154.642929</v>
@@ -40601,13 +40601,13 @@
         <v>15855024712.051502</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q33" s="20">
         <f>SUM(Q22:Q32)</f>
         <v>195919414.3098712</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H34" s="20">
         <f>J34+M34</f>
         <v>1184905523.6070931</v>
@@ -40628,7 +40628,7 @@
         <v>1.0125115331038823</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N35" t="s">
         <v>104</v>
       </c>
@@ -40637,8 +40637,8 @@
         <v>195919414.30987167</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -40666,7 +40666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2030</v>
       </c>
@@ -40699,7 +40699,7 @@
         <v>1619764757.7518396</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>105</v>
       </c>
@@ -40708,7 +40708,7 @@
         <v>1.0343916379344122</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
         <v>104</v>
       </c>
@@ -40717,13 +40717,13 @@
         <v>53854227.97767663</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O44" s="20">
         <f>H21*(1-(((1+B20/100)^10)-1))+H21*(1+C20/100)*(((1+B20/100)^10)-1)-H21</f>
         <v>53854227.97767663</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O45" s="20"/>
     </row>
   </sheetData>
@@ -40739,28 +40739,28 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="93.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="93.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="67" t="s">
         <v>140</v>
       </c>
@@ -40780,7 +40780,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" s="7" t="s">
         <v>113</v>
       </c>
@@ -40798,7 +40798,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -40824,7 +40824,7 @@
         <v>-1.9388922042525264E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -40850,7 +40850,7 @@
         <v>-4.4015029643099633E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -40878,7 +40878,7 @@
         <v>-6.6557302516646988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>0.7</v>
       </c>
@@ -40895,7 +40895,7 @@
         <v>-4.9947338663412888E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>0.9</v>
       </c>
@@ -40909,7 +40909,7 @@
       </c>
       <c r="G7" s="70"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>1.1000000000000001</v>
       </c>
@@ -40923,91 +40923,91 @@
       </c>
       <c r="G8" s="70"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>1.3</v>
       </c>
       <c r="E9" s="68">
-        <f>_xlfn.NORM.DIST(D9,$B$3,$B$4,FALSE)</f>
+        <f t="shared" ref="E9:E14" si="2">_xlfn.NORM.DIST(D9,$B$3,$B$4,FALSE)</f>
         <v>0.91047925860471612</v>
       </c>
       <c r="F9" s="68">
-        <f>_xlfn.NORM.DIST(D9,$C$3,$C$4,FALSE)</f>
+        <f t="shared" ref="F9:F14" si="3">_xlfn.NORM.DIST(D9,$C$3,$C$4,FALSE)</f>
         <v>1.058566471475693</v>
       </c>
       <c r="G9" s="70"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1.5</v>
       </c>
       <c r="E10" s="68">
-        <f>_xlfn.NORM.DIST(D10,$B$3,$B$4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.7682230044095153</v>
       </c>
       <c r="F10" s="68">
-        <f>_xlfn.NORM.DIST(D10,$C$3,$C$4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.84002384686297349</v>
       </c>
       <c r="G10" s="70"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>1.7</v>
       </c>
       <c r="E11" s="68">
-        <f>_xlfn.NORM.DIST(D11,$B$3,$B$4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.52417478206545798</v>
       </c>
       <c r="F11" s="68">
-        <f>_xlfn.NORM.DIST(D11,$C$3,$C$4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.49926594884476266</v>
       </c>
       <c r="G11" s="70"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>1.9</v>
       </c>
       <c r="E12" s="68">
-        <f>_xlfn.NORM.DIST(D12,$B$3,$B$4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.28922544818090939</v>
       </c>
       <c r="F12" s="68">
-        <f>_xlfn.NORM.DIST(D12,$C$3,$C$4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.22224864928489513</v>
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>2.1</v>
       </c>
       <c r="E13" s="68">
-        <f>_xlfn.NORM.DIST(D13,$B$3,$B$4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.12905310148097698</v>
       </c>
       <c r="F13" s="68">
-        <f>_xlfn.NORM.DIST(D13,$C$3,$C$4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>7.4099139468794054E-2</v>
       </c>
       <c r="G13" s="70"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>2.2999999999999998</v>
       </c>
       <c r="E14" s="68">
-        <f>_xlfn.NORM.DIST(D14,$B$3,$B$4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4.6566323811403063E-2</v>
       </c>
       <c r="F14" s="68">
-        <f>_xlfn.NORM.DIST(D14,$C$3,$C$4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.8503507043287234E-2</v>
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15"/>
       <c r="E15" s="69">
         <f>SUM(E3:E14)</f>
@@ -41022,7 +41022,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="68"/>
       <c r="F16" s="71" t="s">
         <v>146</v>
@@ -41035,10 +41035,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G17" s="15"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -41048,7 +41048,7 @@
       <c r="L20" s="57"/>
       <c r="M20" s="57"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -41058,7 +41058,7 @@
       <c r="L21" s="57"/>
       <c r="M21" s="57"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="35"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -41073,7 +41073,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="35"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -41092,7 +41092,7 @@
       <c r="R23" s="49"/>
       <c r="S23" s="20"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="35"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -41111,7 +41111,7 @@
       <c r="R24" s="49"/>
       <c r="S24" s="20"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="35"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -41130,7 +41130,7 @@
       <c r="R25" s="49"/>
       <c r="S25" s="20"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="35"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -41149,7 +41149,7 @@
       <c r="R26" s="49"/>
       <c r="S26" s="20"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="35"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -41168,7 +41168,7 @@
       <c r="R27" s="49"/>
       <c r="S27" s="20"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="35"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -41187,7 +41187,7 @@
       <c r="R28" s="49"/>
       <c r="S28" s="20"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="35"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -41206,7 +41206,7 @@
       <c r="R29" s="49"/>
       <c r="S29" s="20"/>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="35"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -41225,7 +41225,7 @@
       <c r="R30" s="49"/>
       <c r="S30" s="20"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="35"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -41244,7 +41244,7 @@
       <c r="R31" s="49"/>
       <c r="S31" s="20"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="35"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -41263,32 +41263,32 @@
       <c r="R32" s="49"/>
       <c r="S32" s="63"/>
     </row>
-    <row r="33" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
       <c r="M33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
     </row>
-    <row r="34" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
       <c r="S34" s="20"/>
     </row>
-    <row r="35" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J35" s="20"/>
       <c r="L35" s="20"/>
       <c r="O35" s="20"/>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
       <c r="Q36" s="20"/>
     </row>
-    <row r="37" spans="10:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="10:19" x14ac:dyDescent="0.25">
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="33"/>
       <c r="P39" s="33"/>
     </row>
-    <row r="40" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:19" x14ac:dyDescent="0.25">
       <c r="K40" s="33"/>
       <c r="L40" s="20"/>
       <c r="M40" s="33"/>
@@ -41297,19 +41297,19 @@
       <c r="P40" s="33"/>
       <c r="Q40" s="20"/>
     </row>
-    <row r="42" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:19" x14ac:dyDescent="0.25">
       <c r="Q42" s="34"/>
     </row>
-    <row r="43" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:19" x14ac:dyDescent="0.25">
       <c r="Q43" s="20"/>
     </row>
-    <row r="45" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:19" x14ac:dyDescent="0.25">
       <c r="Q45" s="20">
         <f>J22*(1-(((1+D21/100)^10)-1))+J22*(1+E21/100)*(((1+D21/100)^10)-1)-J22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:19" x14ac:dyDescent="0.25">
       <c r="Q46" s="20"/>
     </row>
   </sheetData>
